--- a/GUI + Reviews/202512/Review 202512/Dataiku/EZSL_EMS_2025-12-11 23_59_59_2025-12-11-22-53-43.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EZSL_EMS_2025-12-11 23_59_59_2025-12-11-22-53-43.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_BDA6D3C9A97C9DFD22B60E5C374980A8DB013D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F752B3E5-92BC-4263-98FE-483CA28E5876}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2412,8 +2431,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2476,13 +2495,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2520,7 +2547,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2554,6 +2581,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2588,9 +2616,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2763,14 +2792,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2822,7 +2853,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2848,7 +2879,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2862,7 +2893,7 @@
         <v>110580102</v>
       </c>
       <c r="E4">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2874,7 +2905,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2900,7 +2931,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2926,7 +2957,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2952,7 +2983,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2978,7 +3009,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3004,7 +3035,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3030,7 +3061,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3087,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3082,7 +3113,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3108,7 +3139,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3134,7 +3165,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3160,7 +3191,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3174,7 +3205,7 @@
         <v>262769869</v>
       </c>
       <c r="E16">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3186,7 +3217,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3212,7 +3243,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3238,7 +3269,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3264,7 +3295,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3278,7 +3309,7 @@
         <v>601548734</v>
       </c>
       <c r="E20">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3290,7 +3321,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3316,7 +3347,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3342,7 +3373,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3356,7 +3387,7 @@
         <v>35343326</v>
       </c>
       <c r="E23">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3368,7 +3399,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3394,7 +3425,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3408,7 +3439,7 @@
         <v>226388620</v>
       </c>
       <c r="E25">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3420,7 +3451,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3446,7 +3477,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3460,7 +3491,7 @@
         <v>73184570</v>
       </c>
       <c r="E27">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3472,7 +3503,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3498,7 +3529,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3524,7 +3555,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3550,7 +3581,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3564,7 +3595,7 @@
         <v>76060831</v>
       </c>
       <c r="E31">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3576,7 +3607,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3602,7 +3633,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3616,7 +3647,7 @@
         <v>209113565</v>
       </c>
       <c r="E33">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3628,7 +3659,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3654,7 +3685,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3668,7 +3699,7 @@
         <v>15906272</v>
       </c>
       <c r="E35">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3680,7 +3711,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3694,7 +3725,7 @@
         <v>100050990</v>
       </c>
       <c r="E36">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3706,7 +3737,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3732,7 +3763,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3758,7 +3789,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3784,7 +3815,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3810,7 +3841,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3824,7 +3855,7 @@
         <v>243921719</v>
       </c>
       <c r="E41">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3836,7 +3867,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3862,7 +3893,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3888,7 +3919,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3914,7 +3945,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3928,7 +3959,7 @@
         <v>61540455</v>
       </c>
       <c r="E45">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3940,7 +3971,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3966,7 +3997,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -3992,7 +4023,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4018,7 +4049,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4032,7 +4063,7 @@
         <v>66000000</v>
       </c>
       <c r="E49">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4044,7 +4075,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4070,7 +4101,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4096,7 +4127,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4122,7 +4153,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4148,7 +4179,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4174,7 +4205,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4200,7 +4231,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4226,7 +4257,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4252,7 +4283,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4278,7 +4309,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4304,7 +4335,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -4330,7 +4361,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4356,7 +4387,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4382,7 +4413,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4408,7 +4439,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4434,7 +4465,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4460,7 +4491,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4486,7 +4517,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4512,7 +4543,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4538,7 +4569,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4564,7 +4595,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4590,7 +4621,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4616,7 +4647,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4642,7 +4673,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4668,7 +4699,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4694,7 +4725,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4720,7 +4751,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4746,7 +4777,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4772,7 +4803,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4786,7 +4817,7 @@
         <v>119807490</v>
       </c>
       <c r="E78">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4798,7 +4829,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4824,7 +4855,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4850,7 +4881,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4876,7 +4907,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4902,7 +4933,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4928,7 +4959,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4954,7 +4985,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -4980,7 +5011,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -4994,7 +5025,7 @@
         <v>34280750</v>
       </c>
       <c r="E86">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -5006,7 +5037,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5020,7 +5051,7 @@
         <v>200005980</v>
       </c>
       <c r="E87">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -5032,7 +5063,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5058,7 +5089,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5084,7 +5115,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5110,7 +5141,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5136,7 +5167,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5162,7 +5193,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5188,7 +5219,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5214,7 +5245,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5240,7 +5271,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5266,7 +5297,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5292,7 +5323,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5318,7 +5349,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5344,7 +5375,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5370,7 +5401,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5396,7 +5427,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5422,7 +5453,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5448,7 +5479,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5474,7 +5505,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5500,7 +5531,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5526,7 +5557,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5552,7 +5583,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5578,7 +5609,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5604,7 +5635,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5630,7 +5661,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -5656,7 +5687,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5682,7 +5713,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -5708,7 +5739,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -5734,7 +5765,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -5760,7 +5791,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -5774,7 +5805,7 @@
         <v>237553695</v>
       </c>
       <c r="E116">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -5786,7 +5817,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -5812,7 +5843,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -5838,7 +5869,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -5864,7 +5895,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -5890,7 +5921,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -5916,7 +5947,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -5942,7 +5973,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -5968,7 +5999,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -5982,7 +6013,7 @@
         <v>71925760</v>
       </c>
       <c r="E124">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -5994,7 +6025,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6020,7 +6051,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6046,7 +6077,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6072,7 +6103,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -6086,7 +6117,7 @@
         <v>466000000</v>
       </c>
       <c r="E128">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -6098,7 +6129,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -6124,7 +6155,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6150,7 +6181,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6176,7 +6207,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6202,7 +6233,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6228,7 +6259,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6254,7 +6285,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6280,7 +6311,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6306,7 +6337,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6332,7 +6363,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6358,7 +6389,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6384,7 +6415,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6410,7 +6441,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6436,7 +6467,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6462,7 +6493,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6476,7 +6507,7 @@
         <v>197089340</v>
       </c>
       <c r="E143">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -6488,7 +6519,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6514,7 +6545,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6540,7 +6571,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -6566,7 +6597,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -6592,7 +6623,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -6606,7 +6637,7 @@
         <v>65897071</v>
       </c>
       <c r="E148">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6618,7 +6649,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -6644,7 +6675,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -6670,7 +6701,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -6684,7 +6715,7 @@
         <v>76792337</v>
       </c>
       <c r="E151">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -6696,7 +6727,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6710,7 +6741,7 @@
         <v>550000000</v>
       </c>
       <c r="E152">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -6722,7 +6753,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6748,7 +6779,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -6774,7 +6805,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -6800,7 +6831,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -6826,7 +6857,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -6852,7 +6883,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -6878,7 +6909,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -6904,7 +6935,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -6930,7 +6961,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6956,7 +6987,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -6970,7 +7001,7 @@
         <v>99181149</v>
       </c>
       <c r="E162">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -6982,7 +7013,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7008,7 +7039,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7034,7 +7065,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7060,7 +7091,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7086,7 +7117,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -7100,7 +7131,7 @@
         <v>1489538745</v>
       </c>
       <c r="E167">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -7112,7 +7143,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7138,7 +7169,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -7164,7 +7195,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -7190,7 +7221,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -7216,7 +7247,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -7242,7 +7273,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -7268,7 +7299,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -7294,7 +7325,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -7320,7 +7351,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7346,7 +7377,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7372,7 +7403,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7398,7 +7429,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7424,7 +7455,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7450,7 +7481,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7476,7 +7507,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7502,7 +7533,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7528,7 +7559,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -7554,7 +7585,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -7580,7 +7611,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -7606,7 +7637,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -7632,7 +7663,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -7658,7 +7689,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -7684,7 +7715,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -7710,7 +7741,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -7736,7 +7767,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -7762,7 +7793,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -7788,7 +7819,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -7802,7 +7833,7 @@
         <v>131198650</v>
       </c>
       <c r="E194">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -7814,7 +7845,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -7840,7 +7871,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -7866,7 +7897,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -7892,7 +7923,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -7918,7 +7949,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -7944,7 +7975,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -7970,7 +8001,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -7996,7 +8027,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8022,7 +8053,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8048,7 +8079,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8074,7 +8105,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8100,7 +8131,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8126,7 +8157,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8152,7 +8183,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8178,7 +8209,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8204,7 +8235,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8230,7 +8261,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8256,7 +8287,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8282,7 +8313,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8308,7 +8339,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8334,7 +8365,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8360,7 +8391,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8386,7 +8417,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8412,7 +8443,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8438,7 +8469,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8464,7 +8495,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8490,7 +8521,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8516,7 +8547,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8542,7 +8573,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -8568,7 +8599,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -8594,7 +8625,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -8620,7 +8651,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8646,7 +8677,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -8672,7 +8703,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -8698,7 +8729,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -8724,7 +8755,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -8750,7 +8781,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -8776,7 +8807,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -8802,7 +8833,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -8828,7 +8859,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8854,7 +8885,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -8868,7 +8899,7 @@
         <v>43744779</v>
       </c>
       <c r="E235">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -8880,7 +8911,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -8906,7 +8937,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -8932,7 +8963,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -8958,7 +8989,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -8972,7 +9003,7 @@
         <v>236450360</v>
       </c>
       <c r="E239">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -8984,7 +9015,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9010,7 +9041,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9036,7 +9067,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9062,7 +9093,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9088,7 +9119,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9114,7 +9145,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9140,7 +9171,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9154,7 +9185,7 @@
         <v>255032123</v>
       </c>
       <c r="E246">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -9166,7 +9197,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9192,7 +9223,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9218,7 +9249,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9244,7 +9275,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9270,7 +9301,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -9296,7 +9327,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -9322,7 +9353,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9336,7 +9367,7 @@
         <v>147174692</v>
       </c>
       <c r="E253">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -9348,7 +9379,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9374,7 +9405,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9400,7 +9431,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9426,7 +9457,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9452,7 +9483,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9478,7 +9509,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9504,7 +9535,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9530,7 +9561,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -9556,7 +9587,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -9582,7 +9613,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -9608,7 +9639,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -9634,7 +9665,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -9648,7 +9679,7 @@
         <v>175977424</v>
       </c>
       <c r="E265">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -9660,7 +9691,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -9686,7 +9717,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -9712,7 +9743,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -9738,7 +9769,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -9764,7 +9795,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -9790,7 +9821,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -9816,7 +9847,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -9842,7 +9873,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -9868,7 +9899,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -9894,7 +9925,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -9920,7 +9951,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -9946,7 +9977,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -9972,7 +10003,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -9998,7 +10029,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -10024,7 +10055,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -10050,7 +10081,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -10076,7 +10107,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -10102,7 +10133,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -10128,7 +10159,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -10154,7 +10185,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -10180,7 +10211,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -10206,7 +10237,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -10232,7 +10263,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -10246,7 +10277,7 @@
         <v>171361365</v>
       </c>
       <c r="E288">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -10258,7 +10289,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -10284,7 +10315,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -10298,7 +10329,7 @@
         <v>179363695</v>
       </c>
       <c r="E290">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -10310,7 +10341,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10336,7 +10367,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10350,7 +10381,7 @@
         <v>55337770</v>
       </c>
       <c r="E292">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -10362,7 +10393,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10388,7 +10419,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10414,7 +10445,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10440,7 +10471,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10454,7 +10485,7 @@
         <v>128344238</v>
       </c>
       <c r="E296">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -10466,7 +10497,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10492,7 +10523,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10518,7 +10549,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10544,7 +10575,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -10558,7 +10589,7 @@
         <v>147454887</v>
       </c>
       <c r="E300">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -10570,7 +10601,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -10596,7 +10627,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -10622,7 +10653,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -10648,7 +10679,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -10662,7 +10693,7 @@
         <v>20547701</v>
       </c>
       <c r="E304">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -10674,7 +10705,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -10700,7 +10731,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -10714,7 +10745,7 @@
         <v>911281920</v>
       </c>
       <c r="E306">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -10726,7 +10757,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -10752,7 +10783,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -10778,7 +10809,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -10804,7 +10835,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -10818,7 +10849,7 @@
         <v>184379301</v>
       </c>
       <c r="E310">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -10830,7 +10861,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -10856,7 +10887,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -10882,7 +10913,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -10896,7 +10927,7 @@
         <v>201327500</v>
       </c>
       <c r="E313">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F313">
         <v>1</v>
@@ -10908,7 +10939,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -10934,7 +10965,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -10948,7 +10979,7 @@
         <v>80301260</v>
       </c>
       <c r="E315">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -10960,7 +10991,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -10986,7 +11017,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -11012,7 +11043,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -11038,7 +11069,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -11064,7 +11095,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -11090,7 +11121,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -11116,7 +11147,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -11142,7 +11173,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -11168,7 +11199,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11194,7 +11225,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -11208,7 +11239,7 @@
         <v>42198429</v>
       </c>
       <c r="E325">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -11220,7 +11251,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -11246,7 +11277,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -11272,7 +11303,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -11298,7 +11329,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -11324,7 +11355,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11350,7 +11381,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11364,7 +11395,7 @@
         <v>143244727</v>
       </c>
       <c r="E331">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -11376,7 +11407,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11402,7 +11433,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11428,7 +11459,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11454,7 +11485,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11480,7 +11511,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11506,7 +11537,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11520,7 +11551,7 @@
         <v>234359146</v>
       </c>
       <c r="E337">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -11532,7 +11563,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -11558,7 +11589,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -11572,7 +11603,7 @@
         <v>43036928</v>
       </c>
       <c r="E339">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -11584,7 +11615,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -11610,7 +11641,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -11636,7 +11667,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -11662,7 +11693,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -11688,7 +11719,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -11714,7 +11745,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -11728,7 +11759,7 @@
         <v>1029918125</v>
       </c>
       <c r="E345">
-        <v>0.7000000000000001</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -11740,7 +11771,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -11766,7 +11797,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -11780,7 +11811,7 @@
         <v>16843782</v>
       </c>
       <c r="E347">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -11792,7 +11823,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -11818,7 +11849,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -11844,7 +11875,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -11858,7 +11889,7 @@
         <v>44512038</v>
       </c>
       <c r="E350">
-        <v>0.6000000000000001</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -11870,7 +11901,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -11896,7 +11927,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -11922,7 +11953,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -11936,7 +11967,7 @@
         <v>46695094</v>
       </c>
       <c r="E353">
-        <v>0.8500000000000001</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -11948,7 +11979,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -11974,7 +12005,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -12002,18 +12033,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -12035,7 +12069,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12046,7 +12080,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -12057,7 +12091,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -12068,7 +12102,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -12079,7 +12113,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -12090,7 +12124,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -12101,7 +12135,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -12112,7 +12146,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -12123,7 +12157,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -12134,7 +12168,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -12145,7 +12179,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -12156,7 +12190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -12167,7 +12201,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -12178,7 +12212,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -12189,7 +12223,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -12200,7 +12234,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -12211,7 +12245,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -12222,7 +12256,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>221</v>
       </c>
@@ -12233,7 +12267,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -12244,7 +12278,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -12255,7 +12289,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -12266,7 +12300,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -12277,7 +12311,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -12288,7 +12322,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12299,7 +12333,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>249</v>
       </c>
@@ -12310,7 +12344,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>255</v>
       </c>
@@ -12321,7 +12355,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -12332,7 +12366,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>290</v>
       </c>
@@ -12343,7 +12377,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -12354,7 +12388,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -12365,7 +12399,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -12376,7 +12410,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12387,7 +12421,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>326</v>
       </c>
@@ -12398,7 +12432,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -12409,7 +12443,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -12422,18 +12456,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12444,7 +12481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>730</v>
       </c>
@@ -12455,7 +12492,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>731</v>
       </c>
@@ -12466,7 +12503,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>732</v>
       </c>
@@ -12477,7 +12514,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>733</v>
       </c>
@@ -12488,7 +12525,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>734</v>
       </c>
@@ -12499,7 +12536,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>735</v>
       </c>
@@ -12510,7 +12547,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>736</v>
       </c>
@@ -12521,7 +12558,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>737</v>
       </c>
@@ -12532,7 +12569,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>738</v>
       </c>
@@ -12543,7 +12580,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>739</v>
       </c>
@@ -12554,7 +12591,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>740</v>
       </c>
@@ -12565,7 +12602,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>741</v>
       </c>
@@ -12576,7 +12613,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>742</v>
       </c>
@@ -12587,7 +12624,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>743</v>
       </c>
@@ -12598,7 +12635,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>744</v>
       </c>
@@ -12609,7 +12646,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>745</v>
       </c>
@@ -12620,7 +12657,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>746</v>
       </c>
@@ -12631,7 +12668,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -12642,7 +12679,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -12653,7 +12690,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>749</v>
       </c>
@@ -12664,7 +12701,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>750</v>
       </c>
@@ -12675,7 +12712,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -12686,7 +12723,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>752</v>
       </c>
@@ -12697,7 +12734,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>753</v>
       </c>
@@ -12708,7 +12745,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>754</v>
       </c>
@@ -12719,7 +12756,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>755</v>
       </c>
@@ -12730,7 +12767,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>756</v>
       </c>
@@ -12741,7 +12778,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>757</v>
       </c>
@@ -12752,7 +12789,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>758</v>
       </c>
@@ -12763,7 +12800,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>759</v>
       </c>
@@ -12774,7 +12811,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>760</v>
       </c>
@@ -12785,7 +12822,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>761</v>
       </c>
@@ -12796,7 +12833,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>762</v>
       </c>
@@ -12809,5 +12846,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/EZSL_EMS_2025-12-11 23_59_59_2025-12-11-22-53-43.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EZSL_EMS_2025-12-11 23_59_59_2025-12-11-22-53-43.xlsx
@@ -1,36 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_BDA6D3C9A97C9DFD22B60E5C374980A8DB013D53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F752B3E5-92BC-4263-98FE-483CA28E5876}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2431,8 +2412,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2495,21 +2476,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2547,7 +2520,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2581,7 +2554,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2616,10 +2588,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2792,16 +2763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +2822,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2879,7 +2848,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2893,7 +2862,7 @@
         <v>110580102</v>
       </c>
       <c r="E4">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2905,7 +2874,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2900,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2957,7 +2926,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2983,7 +2952,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +2978,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3004,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3030,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3087,7 +3056,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3082,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3139,7 +3108,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3165,7 +3134,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3191,7 +3160,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3205,7 +3174,7 @@
         <v>262769869</v>
       </c>
       <c r="E16">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3217,7 +3186,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3243,7 +3212,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3269,7 +3238,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3295,7 +3264,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3309,7 +3278,7 @@
         <v>601548734</v>
       </c>
       <c r="E20">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3321,7 +3290,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3347,7 +3316,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3373,7 +3342,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3387,7 +3356,7 @@
         <v>35343326</v>
       </c>
       <c r="E23">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3399,7 +3368,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3425,7 +3394,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3439,7 +3408,7 @@
         <v>226388620</v>
       </c>
       <c r="E25">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3451,7 +3420,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3477,7 +3446,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3491,7 +3460,7 @@
         <v>73184570</v>
       </c>
       <c r="E27">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3503,7 +3472,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3529,7 +3498,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3555,7 +3524,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3581,7 +3550,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3595,7 +3564,7 @@
         <v>76060831</v>
       </c>
       <c r="E31">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3607,7 +3576,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3602,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3647,7 +3616,7 @@
         <v>209113565</v>
       </c>
       <c r="E33">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3659,7 +3628,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3685,7 +3654,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3699,7 +3668,7 @@
         <v>15906272</v>
       </c>
       <c r="E35">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3711,7 +3680,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3725,7 +3694,7 @@
         <v>100050990</v>
       </c>
       <c r="E36">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3737,7 +3706,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3763,7 +3732,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3789,7 +3758,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3815,7 +3784,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -3841,7 +3810,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -3855,7 +3824,7 @@
         <v>243921719</v>
       </c>
       <c r="E41">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3867,7 +3836,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -3893,7 +3862,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3919,7 +3888,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -3945,7 +3914,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -3959,7 +3928,7 @@
         <v>61540455</v>
       </c>
       <c r="E45">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3971,7 +3940,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -3997,7 +3966,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4023,7 +3992,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4049,7 +4018,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4063,7 +4032,7 @@
         <v>66000000</v>
       </c>
       <c r="E49">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4075,7 +4044,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4101,7 +4070,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4127,7 +4096,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4153,7 +4122,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4179,7 +4148,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4205,7 +4174,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4231,7 +4200,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4257,7 +4226,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4283,7 +4252,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4309,7 +4278,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4335,7 +4304,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -4361,7 +4330,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4387,7 +4356,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4413,7 +4382,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4439,7 +4408,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4465,7 +4434,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4491,7 +4460,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4517,7 +4486,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4543,7 +4512,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4569,7 +4538,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4595,7 +4564,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4621,7 +4590,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4647,7 +4616,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4673,7 +4642,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4699,7 +4668,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4725,7 +4694,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4751,7 +4720,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4777,7 +4746,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4803,7 +4772,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -4817,7 +4786,7 @@
         <v>119807490</v>
       </c>
       <c r="E78">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -4829,7 +4798,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -4855,7 +4824,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4881,7 +4850,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -4907,7 +4876,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -4933,7 +4902,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -4959,7 +4928,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -4985,7 +4954,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5011,7 +4980,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5025,7 +4994,7 @@
         <v>34280750</v>
       </c>
       <c r="E86">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -5037,7 +5006,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5051,7 +5020,7 @@
         <v>200005980</v>
       </c>
       <c r="E87">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -5063,7 +5032,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5089,7 +5058,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5115,7 +5084,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5141,7 +5110,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5167,7 +5136,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5193,7 +5162,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5219,7 +5188,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5245,7 +5214,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5271,7 +5240,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5297,7 +5266,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5323,7 +5292,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5349,7 +5318,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5375,7 +5344,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5401,7 +5370,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5427,7 +5396,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5453,7 +5422,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5479,7 +5448,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5505,7 +5474,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5531,7 +5500,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5557,7 +5526,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5583,7 +5552,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5609,7 +5578,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5635,7 +5604,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5661,7 +5630,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -5687,7 +5656,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5713,7 +5682,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -5739,7 +5708,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -5765,7 +5734,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -5791,7 +5760,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -5805,7 +5774,7 @@
         <v>237553695</v>
       </c>
       <c r="E116">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -5817,7 +5786,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -5843,7 +5812,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -5869,7 +5838,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -5895,7 +5864,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -5921,7 +5890,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -5947,7 +5916,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -5973,7 +5942,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -5999,7 +5968,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -6013,7 +5982,7 @@
         <v>71925760</v>
       </c>
       <c r="E124">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -6025,7 +5994,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6051,7 +6020,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6077,7 +6046,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6103,7 +6072,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -6117,7 +6086,7 @@
         <v>466000000</v>
       </c>
       <c r="E128">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -6129,7 +6098,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -6155,7 +6124,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6181,7 +6150,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6207,7 +6176,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6233,7 +6202,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -6259,7 +6228,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6285,7 +6254,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6311,7 +6280,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6337,7 +6306,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6363,7 +6332,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6389,7 +6358,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6415,7 +6384,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6441,7 +6410,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6467,7 +6436,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6493,7 +6462,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6507,7 +6476,7 @@
         <v>197089340</v>
       </c>
       <c r="E143">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -6519,7 +6488,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6545,7 +6514,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6571,7 +6540,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -6597,7 +6566,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -6623,7 +6592,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -6637,7 +6606,7 @@
         <v>65897071</v>
       </c>
       <c r="E148">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -6649,7 +6618,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -6675,7 +6644,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -6701,7 +6670,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -6715,7 +6684,7 @@
         <v>76792337</v>
       </c>
       <c r="E151">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -6727,7 +6696,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6741,7 +6710,7 @@
         <v>550000000</v>
       </c>
       <c r="E152">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -6753,7 +6722,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6779,7 +6748,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -6805,7 +6774,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -6831,7 +6800,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -6857,7 +6826,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -6883,7 +6852,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -6909,7 +6878,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -6935,7 +6904,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -6961,7 +6930,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6987,7 +6956,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -7001,7 +6970,7 @@
         <v>99181149</v>
       </c>
       <c r="E162">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -7013,7 +6982,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7039,7 +7008,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7065,7 +7034,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7091,7 +7060,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7117,7 +7086,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -7131,7 +7100,7 @@
         <v>1489538745</v>
       </c>
       <c r="E167">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -7143,7 +7112,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7169,7 +7138,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -7195,7 +7164,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -7221,7 +7190,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -7247,7 +7216,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -7273,7 +7242,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -7299,7 +7268,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -7325,7 +7294,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -7351,7 +7320,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7377,7 +7346,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7403,7 +7372,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7429,7 +7398,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7455,7 +7424,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7481,7 +7450,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7507,7 +7476,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7533,7 +7502,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7559,7 +7528,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -7585,7 +7554,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -7611,7 +7580,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -7637,7 +7606,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -7663,7 +7632,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -7689,7 +7658,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -7715,7 +7684,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -7741,7 +7710,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -7767,7 +7736,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -7793,7 +7762,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -7819,7 +7788,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -7833,7 +7802,7 @@
         <v>131198650</v>
       </c>
       <c r="E194">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -7845,7 +7814,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -7871,7 +7840,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -7897,7 +7866,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -7923,7 +7892,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -7949,7 +7918,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -7975,7 +7944,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8001,7 +7970,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -8027,7 +7996,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8053,7 +8022,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8079,7 +8048,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8105,7 +8074,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8131,7 +8100,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8157,7 +8126,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8183,7 +8152,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8209,7 +8178,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8235,7 +8204,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8261,7 +8230,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8287,7 +8256,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8313,7 +8282,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8339,7 +8308,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8365,7 +8334,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8391,7 +8360,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8417,7 +8386,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8443,7 +8412,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8469,7 +8438,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8495,7 +8464,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8521,7 +8490,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8547,7 +8516,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8573,7 +8542,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -8599,7 +8568,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -8625,7 +8594,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -8651,7 +8620,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8677,7 +8646,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -8703,7 +8672,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -8729,7 +8698,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -8755,7 +8724,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -8781,7 +8750,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -8807,7 +8776,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -8833,7 +8802,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -8859,7 +8828,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -8885,7 +8854,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -8899,7 +8868,7 @@
         <v>43744779</v>
       </c>
       <c r="E235">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -8911,7 +8880,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -8937,7 +8906,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -8963,7 +8932,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -8989,7 +8958,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9003,7 +8972,7 @@
         <v>236450360</v>
       </c>
       <c r="E239">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -9015,7 +8984,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9041,7 +9010,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9067,7 +9036,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9093,7 +9062,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9119,7 +9088,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9145,7 +9114,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9171,7 +9140,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9185,7 +9154,7 @@
         <v>255032123</v>
       </c>
       <c r="E246">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -9197,7 +9166,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9223,7 +9192,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9249,7 +9218,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9275,7 +9244,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9301,7 +9270,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -9327,7 +9296,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -9353,7 +9322,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9367,7 +9336,7 @@
         <v>147174692</v>
       </c>
       <c r="E253">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -9379,7 +9348,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9405,7 +9374,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9431,7 +9400,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9457,7 +9426,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9483,7 +9452,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9509,7 +9478,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9535,7 +9504,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9561,7 +9530,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -9587,7 +9556,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -9613,7 +9582,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -9639,7 +9608,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -9665,7 +9634,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -9679,7 +9648,7 @@
         <v>175977424</v>
       </c>
       <c r="E265">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -9691,7 +9660,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -9717,7 +9686,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -9743,7 +9712,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -9769,7 +9738,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -9795,7 +9764,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -9821,7 +9790,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -9847,7 +9816,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -9873,7 +9842,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -9899,7 +9868,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -9925,7 +9894,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -9951,7 +9920,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -9977,7 +9946,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -10003,7 +9972,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -10029,7 +9998,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -10055,7 +10024,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -10081,7 +10050,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -10107,7 +10076,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -10133,7 +10102,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -10159,7 +10128,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -10185,7 +10154,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -10211,7 +10180,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -10237,7 +10206,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -10263,7 +10232,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -10277,7 +10246,7 @@
         <v>171361365</v>
       </c>
       <c r="E288">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -10289,7 +10258,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -10315,7 +10284,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -10329,7 +10298,7 @@
         <v>179363695</v>
       </c>
       <c r="E290">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -10341,7 +10310,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10367,7 +10336,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10381,7 +10350,7 @@
         <v>55337770</v>
       </c>
       <c r="E292">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -10393,7 +10362,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10419,7 +10388,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10445,7 +10414,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10471,7 +10440,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10485,7 +10454,7 @@
         <v>128344238</v>
       </c>
       <c r="E296">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -10497,7 +10466,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10523,7 +10492,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10549,7 +10518,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10575,7 +10544,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -10589,7 +10558,7 @@
         <v>147454887</v>
       </c>
       <c r="E300">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -10601,7 +10570,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -10627,7 +10596,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -10653,7 +10622,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -10679,7 +10648,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -10693,7 +10662,7 @@
         <v>20547701</v>
       </c>
       <c r="E304">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -10705,7 +10674,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -10731,7 +10700,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -10745,7 +10714,7 @@
         <v>911281920</v>
       </c>
       <c r="E306">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -10757,7 +10726,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -10783,7 +10752,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -10809,7 +10778,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -10835,7 +10804,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -10849,7 +10818,7 @@
         <v>184379301</v>
       </c>
       <c r="E310">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -10861,7 +10830,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -10887,7 +10856,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -10913,7 +10882,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -10927,7 +10896,7 @@
         <v>201327500</v>
       </c>
       <c r="E313">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F313">
         <v>1</v>
@@ -10939,7 +10908,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -10965,7 +10934,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -10979,7 +10948,7 @@
         <v>80301260</v>
       </c>
       <c r="E315">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -10991,7 +10960,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -11017,7 +10986,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -11043,7 +11012,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -11069,7 +11038,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -11095,7 +11064,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -11121,7 +11090,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -11147,7 +11116,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -11173,7 +11142,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -11199,7 +11168,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11225,7 +11194,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -11239,7 +11208,7 @@
         <v>42198429</v>
       </c>
       <c r="E325">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -11251,7 +11220,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -11277,7 +11246,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -11303,7 +11272,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -11329,7 +11298,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -11355,7 +11324,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11381,7 +11350,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11395,7 +11364,7 @@
         <v>143244727</v>
       </c>
       <c r="E331">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -11407,7 +11376,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11433,7 +11402,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11459,7 +11428,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11485,7 +11454,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11511,7 +11480,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11537,7 +11506,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11551,7 +11520,7 @@
         <v>234359146</v>
       </c>
       <c r="E337">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -11563,7 +11532,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -11589,7 +11558,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -11603,7 +11572,7 @@
         <v>43036928</v>
       </c>
       <c r="E339">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -11615,7 +11584,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -11641,7 +11610,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -11667,7 +11636,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -11693,7 +11662,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -11719,7 +11688,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -11745,7 +11714,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -11759,7 +11728,7 @@
         <v>1029918125</v>
       </c>
       <c r="E345">
-        <v>0.70000000000000007</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -11771,7 +11740,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -11797,7 +11766,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -11811,7 +11780,7 @@
         <v>16843782</v>
       </c>
       <c r="E347">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -11823,7 +11792,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -11849,7 +11818,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -11875,7 +11844,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -11889,7 +11858,7 @@
         <v>44512038</v>
       </c>
       <c r="E350">
-        <v>0.60000000000000009</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -11901,7 +11870,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -11927,7 +11896,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -11953,7 +11922,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -11967,7 +11936,7 @@
         <v>46695094</v>
       </c>
       <c r="E353">
-        <v>0.85000000000000009</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -11979,7 +11948,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -12005,7 +11974,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -12033,21 +12002,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12058,7 +12024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -12069,7 +12035,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12080,7 +12046,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -12091,7 +12057,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -12102,7 +12068,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -12113,7 +12079,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -12124,7 +12090,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -12135,7 +12101,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -12146,7 +12112,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -12157,7 +12123,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -12168,7 +12134,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -12179,7 +12145,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -12190,7 +12156,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -12201,7 +12167,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -12212,7 +12178,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -12223,7 +12189,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -12234,7 +12200,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -12245,7 +12211,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -12256,7 +12222,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>221</v>
       </c>
@@ -12267,7 +12233,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -12278,7 +12244,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -12289,7 +12255,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -12300,7 +12266,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -12311,7 +12277,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -12322,7 +12288,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>248</v>
       </c>
@@ -12333,7 +12299,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>249</v>
       </c>
@@ -12344,7 +12310,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>255</v>
       </c>
@@ -12355,7 +12321,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -12366,7 +12332,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>290</v>
       </c>
@@ -12377,7 +12343,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -12388,7 +12354,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -12399,7 +12365,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -12410,7 +12376,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12421,7 +12387,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>326</v>
       </c>
@@ -12432,7 +12398,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -12443,7 +12409,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -12456,21 +12422,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12481,7 +12444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>730</v>
       </c>
@@ -12492,7 +12455,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>731</v>
       </c>
@@ -12503,7 +12466,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>732</v>
       </c>
@@ -12514,7 +12477,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>733</v>
       </c>
@@ -12525,7 +12488,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>734</v>
       </c>
@@ -12536,7 +12499,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>735</v>
       </c>
@@ -12547,7 +12510,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>736</v>
       </c>
@@ -12558,7 +12521,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>737</v>
       </c>
@@ -12569,7 +12532,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>738</v>
       </c>
@@ -12580,7 +12543,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>739</v>
       </c>
@@ -12591,7 +12554,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>740</v>
       </c>
@@ -12602,7 +12565,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>741</v>
       </c>
@@ -12613,7 +12576,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>742</v>
       </c>
@@ -12624,7 +12587,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>743</v>
       </c>
@@ -12635,7 +12598,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>744</v>
       </c>
@@ -12646,7 +12609,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>745</v>
       </c>
@@ -12657,7 +12620,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>746</v>
       </c>
@@ -12668,7 +12631,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>747</v>
       </c>
@@ -12679,7 +12642,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>748</v>
       </c>
@@ -12690,7 +12653,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>749</v>
       </c>
@@ -12701,7 +12664,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>750</v>
       </c>
@@ -12712,7 +12675,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>751</v>
       </c>
@@ -12723,7 +12686,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>752</v>
       </c>
@@ -12734,7 +12697,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>753</v>
       </c>
@@ -12745,7 +12708,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>754</v>
       </c>
@@ -12756,7 +12719,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>755</v>
       </c>
@@ -12767,7 +12730,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>756</v>
       </c>
@@ -12778,7 +12741,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>757</v>
       </c>
@@ -12789,7 +12752,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>758</v>
       </c>
@@ -12800,7 +12763,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>759</v>
       </c>
@@ -12811,7 +12774,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>760</v>
       </c>
@@ -12822,7 +12785,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>761</v>
       </c>
@@ -12833,7 +12796,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>762</v>
       </c>
@@ -12846,8 +12809,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>